--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T12:47:10+00:00</t>
+    <t>2024-05-23T14:01:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T14:01:51+00:00</t>
+    <t>2025-05-05T08:22:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Interop'Santé (http://interopsante.org/)</t>
   </si>
   <si>
-    <t>InteropSanté (fhir@interopsante.org(WORK))</t>
+    <t>InteropSanté (fhir@interopsante.org(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1310,17 +1310,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="13.91015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.47265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="39.47265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="39.9140625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="11.92578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.83984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="33.83984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="34.21875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="12.3828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1329,21 +1329,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.97265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="80.89453125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="51.921875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="17.21484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="10.5546875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.6953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="69.35546875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="44.51171875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.7578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.046875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>
